--- a/Assets/preloaded/client.xlsx
+++ b/Assets/preloaded/client.xlsx
@@ -1,66 +1,501 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t>Client Name</t>
+  </si>
   <si>
     <t>Location</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>E-Mail ID</t>
   </si>
   <si>
-    <t>SYNDROME TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>SAIBABA INFOCOM</t>
-  </si>
-  <si>
-    <t>HILINK NETWORKS</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>chennai</t>
-  </si>
-  <si>
-    <t>bangalore</t>
-  </si>
-  <si>
-    <t>admin@dcinfotech.com</t>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>ACCRA</t>
+  </si>
+  <si>
+    <t>TP-Link</t>
+  </si>
+  <si>
+    <t>Adana</t>
+  </si>
+  <si>
+    <t>Vivo Electronics</t>
+  </si>
+  <si>
+    <t>ADDIS ABABA</t>
+  </si>
+  <si>
+    <t>Zopo Mobile</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Ahmadabad</t>
+  </si>
+  <si>
+    <t>OnePlus</t>
+  </si>
+  <si>
+    <t>Aleppo(Halab)</t>
+  </si>
+  <si>
+    <t>Hisense</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>ALGIERS</t>
+  </si>
+  <si>
+    <t>Konka Group</t>
+  </si>
+  <si>
+    <t>Allahabad</t>
+  </si>
+  <si>
+    <t>Meizu</t>
+  </si>
+  <si>
+    <t>ALMATY</t>
+  </si>
+  <si>
+    <t>Ningbo Bird</t>
+  </si>
+  <si>
+    <t>AMMAN</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>ANKARA</t>
+  </si>
+  <si>
+    <t>Skyworth</t>
+  </si>
+  <si>
+    <t>Anshan</t>
+  </si>
+  <si>
+    <t>Havells</t>
+  </si>
+  <si>
+    <t>BAGHDAD</t>
+  </si>
+  <si>
+    <t>IBALL</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Intex</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Karbonn</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Micromax</t>
+  </si>
+  <si>
+    <t>BANGKOK</t>
+  </si>
+  <si>
+    <t>Myzornis</t>
+  </si>
+  <si>
+    <t>Baotou</t>
+  </si>
+  <si>
+    <t>Moser Baer</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Notion Ink</t>
+  </si>
+  <si>
+    <t>Barquisimeto</t>
+  </si>
+  <si>
+    <t>Onida</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Surya Roshni Limited</t>
+  </si>
+  <si>
+    <t>Basrah</t>
+  </si>
+  <si>
+    <t>Simmtronics</t>
+  </si>
+  <si>
+    <t>BEIJING</t>
+  </si>
+  <si>
+    <t>Sterlite Technologies</t>
+  </si>
+  <si>
+    <t>BEIRUT</t>
+  </si>
+  <si>
+    <t>Voltas</t>
+  </si>
+  <si>
+    <t>Belem</t>
+  </si>
+  <si>
+    <t>Videocon</t>
+  </si>
+  <si>
+    <t>BELGRADE</t>
+  </si>
+  <si>
+    <t>Videotex</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>Bardhaman</t>
+  </si>
+  <si>
+    <t>Miyako</t>
+  </si>
+  <si>
+    <t>Bareilly</t>
+  </si>
+  <si>
+    <t>Polytron</t>
+  </si>
+  <si>
+    <t>Barrackpore</t>
+  </si>
+  <si>
+    <t>Sanken</t>
+  </si>
+  <si>
+    <t>Basirhat</t>
+  </si>
+  <si>
+    <t>Shimizu</t>
+  </si>
+  <si>
+    <t>Batala</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Bathinda</t>
+  </si>
+  <si>
+    <t>Zyrex</t>
+  </si>
+  <si>
+    <t>Beawar</t>
+  </si>
+  <si>
+    <t>Amkette</t>
+  </si>
+  <si>
+    <t>Belgaum</t>
+  </si>
+  <si>
+    <t>Beetel</t>
+  </si>
+  <si>
+    <t>Bellary</t>
+  </si>
+  <si>
+    <t>Bharat Electronics</t>
+  </si>
+  <si>
+    <t>Bhadravati</t>
+  </si>
+  <si>
+    <t>BPL</t>
+  </si>
+  <si>
+    <t>Bhagalpur</t>
+  </si>
+  <si>
+    <t>Celkon</t>
+  </si>
+  <si>
+    <t>Bharatpur</t>
+  </si>
+  <si>
+    <t>Electronics Corporation of India</t>
+  </si>
+  <si>
+    <t>Bharuch</t>
+  </si>
+  <si>
+    <t>Godrej</t>
+  </si>
+  <si>
+    <t>Bhatpara</t>
+  </si>
+  <si>
+    <t>HCL</t>
+  </si>
+  <si>
+    <t>Bhavnagar</t>
+  </si>
+  <si>
+    <t>BYD Electronic</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Changhong</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>Gionee</t>
+  </si>
+  <si>
+    <t>Capetown</t>
+  </si>
+  <si>
+    <t>Haier</t>
+  </si>
+  <si>
+    <t>CARACAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,15 +507,207 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -88,20 +715,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -392,113 +1329,919 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="44.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f ca="1">RANDBETWEEN(8,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
+        <v>9158882196</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("admin@",SUBSTITUTE(LOWER(A2)," ",""),".com")</f>
+        <v>admin@tcl.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>9988776655</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="7" t="str">
+        <f ca="1" t="shared" ref="C3:C12" si="0">RANDBETWEEN(8,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
+        <v>9371670532</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D50" si="1">CONCATENATE("admin@",SUBSTITUTE(LOWER(A3)," ",""),".com")</f>
+        <v>admin@tp-link.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>9383178118</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@vivoelectronics.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>8877996688</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>9988778899</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>8929461748</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@zopomobile.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>9566175782</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@zte.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>8431844920</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@xiaomi.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>8142802008</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@oneplus.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>8867259815</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@hisense.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>8322632079</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@huawei.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>8623995770</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@konkagroup.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>8315725939</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@meizu.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f ca="1" t="shared" ref="C13:C22" si="2">RANDBETWEEN(8,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
+        <v>9736763907</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@ningbobird.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>9844703683</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@oppo.com</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>9411569930</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@panda.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>9674246371</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@skyworth.com</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>9849060789</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@havells.com</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>8586533728</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@iball.com</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>9243006464</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@intex.com</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>9476609648</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@karbonn.com</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>8326974234</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@micromax.com</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>9782851394</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@myzornis.com</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="str">
+        <f ca="1" t="shared" ref="C23:C32" si="3">RANDBETWEEN(8,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
+        <v>9041063208</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@moserbaer.com</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>8545193417</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@notionink.com</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>9273460223</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@onida.com</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>8291661780</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@suryaroshnilimited.com</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>9918571503</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@simmtronics.com</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>8334470113</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@sterlitetechnologies.com</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>9358635318</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@voltas.com</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>9413973756</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@videocon.com</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>9336911379</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@videotex.com</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>9026061520</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@wipro.com</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="7" t="str">
+        <f ca="1" t="shared" ref="C33:C42" si="4">RANDBETWEEN(8,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
+        <v>8756101533</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@miyako.com</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>9099513876</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@polytron.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>9409721259</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@sanken.com</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>8753547174</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@shimizu.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>8462806545</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@wasser.com</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>8560208772</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@zyrex.com</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>9719167616</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@amkette.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>8366931846</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@beetel.com</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>9160247531</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@bharatelectronics.com</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="7" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>9432523491</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@bpl.com</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="7" t="str">
+        <f ca="1" t="shared" ref="C43:C50" si="5">RANDBETWEEN(8,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
+        <v>8492435182</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@celkon.com</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>8081303619</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@electronicscorporationofindia.com</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="7" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>8870476103</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@godrej.com</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="7" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>8282075040</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@hcl.com</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="7" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>8627905357</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@bydelectronic.com</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="7" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>8847024324</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@changhong.com</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>8344242596</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@gionee.com</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="7" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>9600593840</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>admin@haier.com</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="chetan@dcinfotech.com"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" display="TCL" tooltip="https://en.wikipedia.org/wiki/TCL_Corporation"/>
+    <hyperlink ref="A3" r:id="rId2" display="TP-Link" tooltip="https://en.wikipedia.org/wiki/TP-Link"/>
+    <hyperlink ref="A4" r:id="rId3" display="Vivo Electronics" tooltip="https://en.wikipedia.org/wiki/Vivo_Electronics"/>
+    <hyperlink ref="A5" r:id="rId4" display="Zopo Mobile" tooltip="https://en.wikipedia.org/wiki/Zopo_Mobile"/>
+    <hyperlink ref="A6" r:id="rId5" display="ZTE" tooltip="https://en.wikipedia.org/wiki/ZTE"/>
+    <hyperlink ref="A7" r:id="rId6" display="Xiaomi" tooltip="https://en.wikipedia.org/wiki/Xiaomi"/>
+    <hyperlink ref="A8" r:id="rId7" display="OnePlus" tooltip="https://en.wikipedia.org/wiki/OnePlus"/>
+    <hyperlink ref="A9" r:id="rId8" display="Hisense" tooltip="https://en.wikipedia.org/wiki/Hisense"/>
+    <hyperlink ref="A10" r:id="rId9" display="Huawei" tooltip="https://en.wikipedia.org/wiki/Huawei"/>
+    <hyperlink ref="A11" r:id="rId10" display="Konka Group" tooltip="https://en.wikipedia.org/wiki/Konka_Group"/>
+    <hyperlink ref="A12" r:id="rId11" display="Meizu" tooltip="https://en.wikipedia.org/wiki/Meizu"/>
+    <hyperlink ref="A13" r:id="rId12" display="Ningbo Bird" tooltip="https://en.wikipedia.org/wiki/Ningbo_Bird"/>
+    <hyperlink ref="A14" r:id="rId13" display="Oppo" tooltip="https://en.wikipedia.org/wiki/Oppo_Electronics"/>
+    <hyperlink ref="A15" r:id="rId14" display="Panda" tooltip="https://en.wikipedia.org/wiki/Panda_Electronics"/>
+    <hyperlink ref="A16" r:id="rId15" display="Skyworth" tooltip="https://en.wikipedia.org/wiki/Skyworth"/>
+    <hyperlink ref="A17" r:id="rId16" display="Havells" tooltip="https://en.wikipedia.org/wiki/Havells"/>
+    <hyperlink ref="A18" r:id="rId17" display="IBALL" tooltip="https://en.wikipedia.org/wiki/IBall_(company)"/>
+    <hyperlink ref="A19" r:id="rId18" display="Intex" tooltip="https://en.wikipedia.org/wiki/Intex_Technologies"/>
+    <hyperlink ref="A20" r:id="rId19" display="Karbonn" tooltip="https://en.wikipedia.org/wiki/Karbonn_Mobiles"/>
+    <hyperlink ref="A21" r:id="rId20" display="Micromax" tooltip="https://en.wikipedia.org/wiki/Micromax_Mobile"/>
+    <hyperlink ref="A22" r:id="rId21" display="Myzornis" tooltip="https://en.wikipedia.org/wiki/Myzornis"/>
+    <hyperlink ref="A23" r:id="rId22" display="Moser Baer" tooltip="https://en.wikipedia.org/wiki/Moser_Baer"/>
+    <hyperlink ref="A24" r:id="rId23" display="Notion Ink" tooltip="https://en.wikipedia.org/wiki/Adam_tablet"/>
+    <hyperlink ref="A25" r:id="rId24" display="Onida" tooltip="https://en.wikipedia.org/wiki/Onida_Electronics"/>
+    <hyperlink ref="A26" r:id="rId25" display="Surya Roshni Limited" tooltip="https://en.wikipedia.org/wiki/Surya_Roshni_Limited"/>
+    <hyperlink ref="A27" r:id="rId26" display="Simmtronics" tooltip="https://en.wikipedia.org/wiki/Simmtronics"/>
+    <hyperlink ref="A28" r:id="rId27" display="Sterlite Technologies" tooltip="https://en.wikipedia.org/wiki/Sterlite_Technologies"/>
+    <hyperlink ref="A29" r:id="rId28" display="Voltas" tooltip="https://en.wikipedia.org/wiki/Voltas"/>
+    <hyperlink ref="A30" r:id="rId29" display="Videocon" tooltip="https://en.wikipedia.org/wiki/Videocon"/>
+    <hyperlink ref="A31" r:id="rId30" display="Videotex" tooltip="https://en.wikipedia.org/wiki/Videotex"/>
+    <hyperlink ref="A32" r:id="rId31" display="Wipro" tooltip="https://en.wikipedia.org/wiki/Wipro"/>
+    <hyperlink ref="A38" r:id="rId32" display="Zyrex" tooltip="https://en.wikipedia.org/w/index.php?title=Zyrex&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="A39" r:id="rId33" display="Amkette" tooltip="https://en.wikipedia.org/wiki/Amkette"/>
+    <hyperlink ref="A40" r:id="rId34" display="Beetel" tooltip="https://en.wikipedia.org/wiki/Bharti_Enterprises"/>
+    <hyperlink ref="A41" r:id="rId35" display="Bharat Electronics" tooltip="https://en.wikipedia.org/wiki/Bharat_Electronics"/>
+    <hyperlink ref="A42" r:id="rId36" display="BPL" tooltip="https://en.wikipedia.org/wiki/BPL_Group"/>
+    <hyperlink ref="A43" r:id="rId37" display="Celkon" tooltip="https://en.wikipedia.org/wiki/Celkon_Mobiles"/>
+    <hyperlink ref="A44" r:id="rId38" display="Electronics Corporation of India" tooltip="https://en.wikipedia.org/wiki/Electronics_Corporation_of_India"/>
+    <hyperlink ref="A45" r:id="rId39" display="Godrej" tooltip="https://en.wikipedia.org/wiki/Godrej_Group"/>
+    <hyperlink ref="A46" r:id="rId40" display="HCL" tooltip="https://en.wikipedia.org/wiki/HCL_Enterprise"/>
+    <hyperlink ref="A47" r:id="rId41" display="BYD Electronic" tooltip="https://en.wikipedia.org/wiki/BYD_Electronic"/>
+    <hyperlink ref="A48" r:id="rId42" display="Changhong" tooltip="https://en.wikipedia.org/wiki/Changhong"/>
+    <hyperlink ref="A49" r:id="rId43" display="Gionee" tooltip="https://en.wikipedia.org/wiki/Gionee"/>
+    <hyperlink ref="A50" r:id="rId44" display="Haier" tooltip="https://en.wikipedia.org/wiki/Haier"/>
+    <hyperlink ref="B32" r:id="rId45" display="Bardhaman" tooltip="https://en.wikipedia.org/wiki/Bardhaman"/>
+    <hyperlink ref="B33" r:id="rId46" display="Bareilly" tooltip="https://en.wikipedia.org/wiki/Bareilly"/>
+    <hyperlink ref="B34" r:id="rId47" display="Barrackpore" tooltip="https://en.wikipedia.org/wiki/Barrackpore"/>
+    <hyperlink ref="B35" r:id="rId48" display="Basirhat" tooltip="https://en.wikipedia.org/wiki/Basirhat"/>
+    <hyperlink ref="B36" r:id="rId49" display="Batala" tooltip="https://en.wikipedia.org/wiki/Batala"/>
+    <hyperlink ref="B37" r:id="rId50" display="Bathinda" tooltip="https://en.wikipedia.org/wiki/Bathinda"/>
+    <hyperlink ref="B38" r:id="rId51" display="Beawar" tooltip="https://en.wikipedia.org/wiki/Beawar"/>
+    <hyperlink ref="B39" r:id="rId52" display="Belgaum" tooltip="https://en.wikipedia.org/wiki/Belgaum"/>
+    <hyperlink ref="B40" r:id="rId53" display="Bellary" tooltip="https://en.wikipedia.org/wiki/Bellary"/>
+    <hyperlink ref="B41" r:id="rId54" display="Bhadravati" tooltip="https://en.wikipedia.org/wiki/Bhadravati,_Karnataka"/>
+    <hyperlink ref="B42" r:id="rId55" display="Bhagalpur" tooltip="https://en.wikipedia.org/wiki/Bhagalpur"/>
+    <hyperlink ref="B43" r:id="rId56" display="Bharatpur" tooltip="https://en.wikipedia.org/wiki/Bharatpur,_Rajasthan"/>
+    <hyperlink ref="B44" r:id="rId57" display="Bharuch" tooltip="https://en.wikipedia.org/wiki/Bharuch"/>
+    <hyperlink ref="B45" r:id="rId58" display="Bhatpara" tooltip="https://en.wikipedia.org/wiki/Bhatpara"/>
+    <hyperlink ref="B46" r:id="rId59" display="Bhavnagar" tooltip="https://en.wikipedia.org/wiki/Bhavnagar"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>